--- a/po forecast comparison/B09J64TBJG_sales_po_comparison.xlsx
+++ b/po forecast comparison/B09J64TBJG_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,678 +453,1016 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>44935</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44970</v>
+        <v>44941</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45068</v>
+        <v>44976</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45075</v>
+        <v>45074</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45082</v>
+        <v>45081</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45250</v>
+        <v>45088</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45257</v>
+        <v>45256</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45264</v>
+        <v>45263</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45271</v>
+        <v>45270</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45285</v>
+        <v>45277</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45292</v>
+        <v>45291</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45306</v>
+        <v>45305</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45313</v>
+        <v>45312</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45320</v>
+        <v>45319</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45327</v>
+        <v>45326</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45334</v>
+        <v>45333</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45341</v>
+        <v>45340</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45348</v>
+        <v>45347</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45355</v>
+        <v>45354</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45362</v>
+        <v>45361</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45369</v>
+        <v>45368</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45376</v>
+        <v>45375</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45390</v>
+        <v>45382</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45397</v>
+        <v>45396</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45404</v>
+        <v>45403</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45411</v>
+        <v>45410</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45418</v>
+        <v>45417</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45425</v>
+        <v>45417</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45432</v>
+        <v>45424</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45439</v>
+        <v>45431</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45446</v>
+        <v>45438</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45453</v>
+        <v>45445</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45460</v>
+        <v>45452</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45467</v>
+        <v>45459</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45474</v>
+        <v>45466</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45481</v>
+        <v>45473</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45488</v>
+        <v>45480</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45495</v>
+        <v>45487</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45502</v>
+        <v>45494</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45509</v>
+        <v>45501</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45516</v>
+        <v>45508</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45523</v>
+        <v>45515</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45530</v>
+        <v>45522</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45537</v>
+        <v>45529</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45544</v>
+        <v>45536</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45551</v>
+        <v>45543</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45558</v>
+        <v>45550</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45565</v>
+        <v>45557</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45572</v>
+        <v>45564</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45579</v>
+        <v>45571</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45586</v>
+        <v>45578</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45593</v>
+        <v>45585</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45600</v>
+        <v>45592</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45607</v>
+        <v>45599</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45614</v>
+        <v>45606</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45621</v>
+        <v>45613</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45628</v>
+        <v>45620</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45635</v>
+        <v>45627</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45642</v>
+        <v>45634</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B09J64TBJG_sales_po_comparison.xlsx
+++ b/po forecast comparison/B09J64TBJG_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,894 +453,678 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44941</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44941</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44976</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45074</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45081</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45088</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>45082</v>
-      </c>
-      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45256</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45263</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45270</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45277</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45291</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45298</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45305</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45312</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45319</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45326</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45333</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45340</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45347</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45354</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45361</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45368</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45375</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45382</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45396</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45403</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45410</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45417</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45417</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45424</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45431</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45438</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45445</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45452</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45459</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45466</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45473</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45480</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45487</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45494</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45501</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45508</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45515</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45522</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45529</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45536</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45543</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45550</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45557</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="C50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45564</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="C51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45571</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D52" t="n">
+      <c r="C52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45578</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="C53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45585</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45592</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45599</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45606</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="C57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45613</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45620</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45627</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="C60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45634</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="C61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45641</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45648</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="C62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1355,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1378,6 +1162,17 @@
         <is>
           <t>Growth%</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1423,16 +1218,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B09J64TBJG_sales_po_comparison.xlsx
+++ b/po forecast comparison/B09J64TBJG_sales_po_comparison.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Sales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily PO" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merged (Optional)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Volume Insights" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Prediction" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +452,6 @@
           <t>y</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PO_Requested_Qty</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -464,9 +460,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -475,9 +468,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -486,9 +476,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -497,9 +484,6 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -508,9 +492,6 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -519,9 +500,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -530,9 +508,6 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -541,9 +516,6 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -552,9 +524,6 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -563,9 +532,6 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -574,9 +540,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -585,9 +548,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -596,9 +556,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -607,9 +564,6 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -618,9 +572,6 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -629,9 +580,6 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -640,9 +588,6 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -651,9 +596,6 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -662,9 +604,6 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -673,9 +612,6 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -684,9 +620,6 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -695,9 +628,6 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -706,9 +636,6 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -717,9 +644,6 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -728,9 +652,6 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -739,9 +660,6 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -750,9 +668,6 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -761,9 +676,6 @@
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -772,9 +684,6 @@
       <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -783,9 +692,6 @@
       <c r="B31" t="n">
         <v>0</v>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -794,9 +700,6 @@
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -805,9 +708,6 @@
       <c r="B33" t="n">
         <v>0</v>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -816,9 +716,6 @@
       <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -827,9 +724,6 @@
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -838,9 +732,6 @@
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -849,9 +740,6 @@
       <c r="B37" t="n">
         <v>0</v>
       </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -860,9 +748,6 @@
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -871,9 +756,6 @@
       <c r="B39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -882,9 +764,6 @@
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -893,9 +772,6 @@
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -904,9 +780,6 @@
       <c r="B42" t="n">
         <v>0</v>
       </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -915,9 +788,6 @@
       <c r="B43" t="n">
         <v>1</v>
       </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -926,9 +796,6 @@
       <c r="B44" t="n">
         <v>1</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -937,9 +804,6 @@
       <c r="B45" t="n">
         <v>0</v>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -948,9 +812,6 @@
       <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -959,9 +820,6 @@
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -970,9 +828,6 @@
       <c r="B48" t="n">
         <v>0</v>
       </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -981,9 +836,6 @@
       <c r="B49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -992,9 +844,6 @@
       <c r="B50" t="n">
         <v>0</v>
       </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1003,9 +852,6 @@
       <c r="B51" t="n">
         <v>0</v>
       </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1014,9 +860,6 @@
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1025,9 +868,6 @@
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1036,9 +876,6 @@
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1047,9 +884,6 @@
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1058,9 +892,6 @@
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1069,9 +900,6 @@
       <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1080,9 +908,6 @@
       <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1091,9 +916,6 @@
       <c r="B59" t="n">
         <v>0</v>
       </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1102,9 +924,6 @@
       <c r="B60" t="n">
         <v>0</v>
       </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1113,18 +932,12 @@
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
         <v>45655.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,7 +952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,29 +963,402 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ds</t>
+          <t>PO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PO_Requested_Qty</t>
+          <t>Vendor code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Growth%</t>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Product name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>External ID type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>External ID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Model number</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Merchant SKU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Catalog number</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Availability</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Daily_PO_Qty</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Accepted quantity</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ASN quantity</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Received quantity</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Cancelled quantity</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Remaining quantity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Ship-to location</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Window start</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Window end</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Case size</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Total requested cost</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Total accepted cost</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Total received cost</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Total cancelled cost</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Expected date</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Freight terms</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation ID</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Cancellation deadline</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45137.99999999999</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>34ON72AT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GIGABYTE Z690 AORUS MASTER (LGA 1700/ Intel Z690/ ATX/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ Intel WiFi 6E/ AQUANTIA 10GbE LAN/ Intel Thunderbolt 4/ Gaming Motherboard)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>IR - Cancelled: Temporarily out of stock</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>ONT8</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>441</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>2205</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>86F3MF6J</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GIGABYTE Z690 AORUS MASTER (LGA 1700/ Intel Z690/ ATX/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ Intel WiFi 6E/ AQUANTIA 10GbE LAN/ Intel Thunderbolt 4/ Gaming Motherboard)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>IR - Cancelled: Temporarily out of stock</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>GYR3</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>441</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>2205</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1181,6 +1367,735 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Daily_PO_Qty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1221,13 +2136,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1235,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1252,13 +2167,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Predicted_Next_Week_PO_Quantity</t>
+          <t>Predicted_Next_Daily_PO_Quantity</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B09J64TBJG_sales_po_comparison.xlsx
+++ b/po forecast comparison/B09J64TBJG_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,6 +938,14 @@
         <v>45655.99999999999</v>
       </c>
       <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -952,7 +960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1120,245 +1128,6 @@
         <is>
           <t>Cancellation deadline</t>
         </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>34ON72AT</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>45133</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z690 AORUS MASTER (LGA 1700/ Intel Z690/ ATX/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ Intel WiFi 6E/ AQUANTIA 10GbE LAN/ Intel Thunderbolt 4/ Gaming Motherboard)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>B09J64TBJG</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Z690 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Z690 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>ONT8</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>45133</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>441</v>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y2" t="n">
-        <v>2205</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>45133</v>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>86F3MF6J</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45133</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z690 AORUS MASTER (LGA 1700/ Intel Z690/ ATX/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ Intel WiFi 6E/ AQUANTIA 10GbE LAN/ Intel Thunderbolt 4/ Gaming Motherboard)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>B09J64TBJG</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Z690 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Z690 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>GYR3</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>45133</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>441</v>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y3" t="n">
-        <v>2205</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>45133</v>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1372,7 +1141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1454,29 +1223,29 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45133</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45133</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -1487,7 +1256,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -1498,7 +1267,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -1509,7 +1278,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -1520,7 +1289,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45291.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -1531,7 +1300,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -1542,7 +1311,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1553,7 +1322,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -1564,7 +1333,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -1575,7 +1344,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -1586,10 +1355,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1597,7 +1366,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45340.99999999999</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -1608,10 +1377,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45347.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1619,7 +1388,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45354.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -1630,7 +1399,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -1641,7 +1410,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -1652,7 +1421,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -1663,7 +1432,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -1674,7 +1443,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -1685,7 +1454,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -1696,7 +1465,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -1707,7 +1476,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -1718,7 +1487,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -1729,7 +1498,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -1740,7 +1509,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -1751,7 +1520,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -1762,7 +1531,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -1773,7 +1542,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -1784,7 +1553,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -1795,7 +1564,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -1806,7 +1575,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -1817,7 +1586,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -1828,7 +1597,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -1839,7 +1608,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -1850,10 +1619,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1861,10 +1630,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1872,10 +1641,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1883,10 +1652,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1894,7 +1663,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -1905,7 +1674,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -1916,7 +1685,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -1927,7 +1696,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -1938,7 +1707,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -1949,7 +1718,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -1960,7 +1729,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -1971,7 +1740,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -1982,7 +1751,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -1993,7 +1762,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -2004,7 +1773,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45606.99999999999</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -2015,7 +1784,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45613.99999999999</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -2026,7 +1795,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45620.99999999999</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -2037,7 +1806,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45627.99999999999</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -2048,7 +1817,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -2059,7 +1828,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -2070,23 +1839,12 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45655.99999999999</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2133,16 +1891,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2173,7 +1931,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B09J64TBJG_sales_po_comparison.xlsx
+++ b/po forecast comparison/B09J64TBJG_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,6 +946,14 @@
         <v>45662.99999999999</v>
       </c>
       <c r="B63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1141,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1845,6 +1853,17 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B09J64TBJG_sales_po_comparison.xlsx
+++ b/po forecast comparison/B09J64TBJG_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,6 +954,14 @@
         <v>45669.99999999999</v>
       </c>
       <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1149,7 +1157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1864,6 +1872,17 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
         <v>0</v>
       </c>
     </row>
